--- a/test/FEUILLE DE POSITION_3.xlsx
+++ b/test/FEUILLE DE POSITION_3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27816"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\POINTAGE 2024\MECHERIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Bureau\pointage\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23024638-88F7-40CA-BE1C-60AF98DCF6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="165" sheetId="1" r:id="rId1"/>
@@ -322,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -504,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,10 +568,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -579,25 +579,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,29 +620,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,46 +956,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -1008,28 +1003,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -1040,13 +1035,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1058,23 +1053,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1082,8 +1077,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1115,8 +1110,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1127,218 +1122,218 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="48" t="s">
+      <c r="P15" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>31</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="41">
         <v>1</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="41">
         <v>2</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="41">
         <v>3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="41">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="41">
         <v>7</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="41">
         <v>8</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="41">
         <v>9</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="41">
         <v>10</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="41">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="41">
         <v>14</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="43" t="s">
+      <c r="G18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="43" t="s">
+      <c r="O18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="43" t="s">
+      <c r="T18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="U18" s="43" t="s">
+      <c r="U18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="V18" s="43" t="s">
+      <c r="V18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="W18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="43" t="s">
+      <c r="W18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AB18" s="43" t="s">
+      <c r="AB18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AC18" s="43" t="s">
+      <c r="AC18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-    </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -1374,8 +1369,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1418,8 +1413,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +1449,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1466,7 +1461,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -1484,7 +1479,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -1503,7 +1498,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -1523,7 +1518,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -1540,7 +1535,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -1551,8 +1546,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -1567,18 +1562,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1588,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -1608,51 +1603,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1672,22 +1667,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1707,84 +1702,88 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -1801,10 +1800,6 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1814,46 +1809,46 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -1861,28 +1856,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -1893,13 +1888,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1911,23 +1906,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>78</v>
       </c>
@@ -1935,8 +1930,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +1945,7 @@
       <c r="P13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="39" t="s">
         <v>62</v>
       </c>
       <c r="S13" s="28"/>
@@ -1968,8 +1963,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1980,74 +1975,74 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>31</v>
       </c>
       <c r="R17" s="9">
@@ -2056,96 +2051,96 @@
       <c r="S17" s="9">
         <v>2</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="41">
         <v>3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="41">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="41">
         <v>7</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="41">
         <v>8</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="41">
         <v>9</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="41">
         <v>10</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="41">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="41">
         <v>14</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="43" t="s">
+      <c r="B18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="R18" s="10" t="s">
@@ -2154,48 +2149,48 @@
       <c r="S18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="43" t="s">
+      <c r="T18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AC18" s="43" t="s">
+      <c r="AC18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AE18" s="43" t="s">
+      <c r="AE18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AF18" s="43" t="s">
+      <c r="AF18" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -2231,8 +2226,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -2275,8 +2270,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -2311,7 +2306,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -2323,7 +2318,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -2341,7 +2336,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -2360,7 +2355,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -2380,7 +2375,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -2397,7 +2392,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -2408,8 +2403,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -2424,18 +2419,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2445,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -2465,51 +2460,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2529,22 +2524,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2564,84 +2559,86 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
@@ -2658,8 +2655,6 @@
     <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AF30:AG30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2669,46 +2664,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:AB18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -2716,28 +2711,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -2748,13 +2743,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -2766,23 +2761,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>73</v>
       </c>
@@ -2790,8 +2785,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2805,15 +2800,15 @@
       <c r="P13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
       <c r="Z13" s="4" t="s">
         <v>13</v>
       </c>
@@ -2823,8 +2818,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -2835,214 +2830,214 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>31</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="41">
         <v>1</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="41">
         <v>2</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="41">
         <v>3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="41">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="41">
         <v>7</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="41">
         <v>8</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="41">
         <v>9</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="41">
         <v>10</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="41">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="41">
         <v>14</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="43" t="s">
+      <c r="J18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="K18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="P18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="Q18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="43" t="s">
+      <c r="R18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="X18" s="43" t="s">
+      <c r="S18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Y18" s="43" t="s">
+      <c r="X18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Z18" s="43" t="s">
+      <c r="Y18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AA18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-    </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -3078,8 +3073,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -3122,8 +3117,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -3158,7 +3153,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -3170,7 +3165,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -3188,7 +3183,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -3207,7 +3202,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -3227,7 +3222,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -3244,7 +3239,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -3255,8 +3250,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -3271,18 +3266,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -3297,7 +3292,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -3312,51 +3307,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3376,22 +3371,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3411,84 +3406,87 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -3505,9 +3503,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3517,46 +3512,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -3564,28 +3559,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -3596,13 +3591,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -3614,23 +3609,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>73</v>
       </c>
@@ -3638,8 +3633,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -3653,15 +3648,15 @@
       <c r="P13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
       <c r="Z13" s="4" t="s">
         <v>13</v>
       </c>
@@ -3671,8 +3666,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -3683,218 +3678,218 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>31</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="41">
         <v>1</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="41">
         <v>2</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="41">
         <v>3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="41">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="41">
         <v>7</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="41">
         <v>8</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="41">
         <v>9</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="41">
         <v>10</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="41">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="41">
         <v>14</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="43" t="s">
+      <c r="G18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="43" t="s">
+      <c r="O18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="43" t="s">
+      <c r="T18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="U18" s="43" t="s">
+      <c r="U18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="V18" s="43" t="s">
+      <c r="V18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="W18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="43" t="s">
+      <c r="W18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="Y18" s="43" t="s">
+      <c r="Y18" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="Z18" s="43" t="s">
+      <c r="Z18" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AA18" s="43" t="s">
+      <c r="AA18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AB18" s="43" t="s">
+      <c r="AB18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AC18" s="43" t="s">
+      <c r="AC18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-    </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -3930,8 +3925,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -3974,8 +3969,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -4010,7 +4005,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -4022,7 +4017,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -4040,7 +4035,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -4059,7 +4054,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -4079,7 +4074,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -4096,7 +4091,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -4107,8 +4102,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -4123,18 +4118,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -4149,7 +4144,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -4164,51 +4159,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4228,22 +4223,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4263,84 +4258,87 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -4357,9 +4355,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4369,46 +4364,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -4416,28 +4411,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -4448,13 +4443,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4466,23 +4461,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>75</v>
       </c>
@@ -4490,8 +4485,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4505,15 +4500,15 @@
       <c r="P13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
       <c r="Z13" s="4" t="s">
         <v>13</v>
       </c>
@@ -4523,8 +4518,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -4535,222 +4530,222 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>31</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="41">
         <v>1</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="41">
         <v>2</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="41">
         <v>3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="41">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="41">
         <v>7</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="41">
         <v>8</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="41">
         <v>9</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="41">
         <v>10</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="41">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="41">
         <v>14</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="43" t="s">
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="43" t="s">
+      <c r="J18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="43" t="s">
+      <c r="Q18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="S18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="43" t="s">
+      <c r="S18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="W18" s="43" t="s">
+      <c r="W18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="X18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC18" s="43" t="s">
+      <c r="X18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AE18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF18" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -4786,19 +4781,19 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="45" t="s">
+      <c r="F22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H22" s="13"/>
@@ -4832,23 +4827,23 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="45">
+      <c r="E24" s="16">
         <v>9</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="16">
         <v>21</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="16">
         <v>1</v>
       </c>
       <c r="H24" s="16"/>
@@ -4878,7 +4873,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -4890,7 +4885,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -4908,7 +4903,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -4927,7 +4922,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -4947,7 +4942,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -4964,7 +4959,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -4975,8 +4970,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -4991,18 +4986,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -5017,7 +5012,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -5032,51 +5027,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5096,22 +5091,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5131,84 +5126,87 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -5225,9 +5223,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5237,46 +5232,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -5284,28 +5279,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -5316,13 +5311,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -5334,23 +5329,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>73</v>
       </c>
@@ -5358,8 +5353,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5373,15 +5368,15 @@
       <c r="P13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
       <c r="Z13" s="4" t="s">
         <v>13</v>
       </c>
@@ -5391,8 +5386,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -5403,77 +5398,77 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>31</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="41">
         <v>1</v>
       </c>
       <c r="S17" s="9">
@@ -5485,10 +5480,10 @@
       <c r="U17" s="9">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
       <c r="X17" s="9">
@@ -5506,10 +5501,10 @@
       <c r="AB17" s="9">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
       <c r="AE17" s="9">
@@ -5519,96 +5514,96 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="43" t="s">
+      <c r="J18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="K18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="P18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="Q18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="43" t="s">
+      <c r="R18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="X18" s="43" t="s">
+      <c r="S18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Y18" s="43" t="s">
+      <c r="X18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Z18" s="43" t="s">
+      <c r="Y18" s="40" t="s">
         <v>84</v>
       </c>
+      <c r="Z18" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="AA18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AB18" s="10"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -5644,8 +5639,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -5688,8 +5683,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -5724,7 +5719,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -5736,7 +5731,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -5754,7 +5749,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -5773,7 +5768,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -5793,7 +5788,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -5810,7 +5805,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -5821,8 +5816,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -5837,18 +5832,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -5863,7 +5858,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -5878,51 +5873,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5942,22 +5937,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5977,84 +5972,87 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -6071,9 +6069,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6083,46 +6078,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:Z18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -6130,28 +6125,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -6162,13 +6157,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -6180,23 +6175,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>74</v>
       </c>
@@ -6204,8 +6199,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -6237,8 +6232,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -6249,77 +6244,77 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="48" t="s">
+      <c r="P15" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="41">
         <v>31</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="41">
         <v>1</v>
       </c>
       <c r="S17" s="9">
@@ -6331,10 +6326,10 @@
       <c r="U17" s="9">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
       <c r="X17" s="9">
@@ -6352,10 +6347,10 @@
       <c r="AB17" s="9">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
       <c r="AE17" s="9">
@@ -6365,96 +6360,96 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="43" t="s">
+      <c r="J18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="K18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="P18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="Q18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="43" t="s">
+      <c r="R18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="X18" s="43" t="s">
+      <c r="S18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Y18" s="43" t="s">
+      <c r="X18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Z18" s="43" t="s">
+      <c r="Y18" s="40" t="s">
         <v>84</v>
       </c>
+      <c r="Z18" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="AA18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AB18" s="10"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -6490,8 +6485,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -6534,8 +6529,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -6570,7 +6565,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -6582,7 +6577,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -6600,7 +6595,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -6619,7 +6614,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -6639,7 +6634,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -6656,7 +6651,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -6667,8 +6662,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -6683,18 +6678,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -6709,7 +6704,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -6724,51 +6719,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6788,22 +6783,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6823,84 +6818,88 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -6917,10 +6916,6 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6930,46 +6925,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -6977,28 +6972,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -7009,13 +7004,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -7027,23 +7022,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>74</v>
       </c>
@@ -7051,8 +7046,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -7084,8 +7079,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -7096,71 +7091,71 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="48" t="s">
+      <c r="P15" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
       <c r="Q17" s="9">
@@ -7175,90 +7170,90 @@
       <c r="T17" s="9">
         <v>3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="41">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="41">
         <v>7</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="41">
         <v>8</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="41">
         <v>9</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="41">
         <v>10</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="41">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="41">
         <v>14</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="43" t="s">
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="43" t="s">
+      <c r="J18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="40" t="s">
         <v>86</v>
       </c>
       <c r="Q18" s="10" t="s">
@@ -7273,41 +7268,41 @@
       <c r="T18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="43" t="s">
+      <c r="U18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="W18" s="43" t="s">
+      <c r="W18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="X18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC18" s="43" t="s">
+      <c r="X18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-    </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -7343,8 +7338,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -7387,8 +7382,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -7425,7 +7420,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -7437,7 +7432,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -7455,7 +7450,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -7474,7 +7469,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -7494,7 +7489,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -7511,7 +7506,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -7522,8 +7517,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -7538,18 +7533,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -7564,7 +7559,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -7579,69 +7574,69 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="57" t="s">
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="72"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="68"/>
       <c r="U35" s="47"/>
       <c r="V35" s="47"/>
       <c r="W35" s="47"/>
@@ -7654,72 +7649,78 @@
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47"/>
-      <c r="AG35" s="73"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="75"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="75"/>
-      <c r="AE36" s="75"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="76"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AG35" s="69"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="72"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A35:J36"/>
     <mergeCell ref="K35:S36"/>
     <mergeCell ref="T35:AG36"/>
@@ -7736,12 +7737,6 @@
     <mergeCell ref="AD15:AF15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7751,46 +7746,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -7798,28 +7793,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -7830,13 +7825,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -7848,23 +7843,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>73</v>
       </c>
@@ -7872,8 +7867,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -7887,15 +7882,15 @@
       <c r="P13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
       <c r="Z13" s="4" t="s">
         <v>13</v>
       </c>
@@ -7905,8 +7900,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -7917,71 +7912,71 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
       <c r="Q17" s="9">
@@ -7999,10 +7994,10 @@
       <c r="U17" s="9">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
       <c r="X17" s="9">
@@ -8020,10 +8015,10 @@
       <c r="AB17" s="9">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
       <c r="AE17" s="9">
@@ -8033,102 +8028,102 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="44" t="s">
+      <c r="G18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="44" t="s">
+      <c r="O18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="43" t="s">
+      <c r="T18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="U18" s="43" t="s">
+      <c r="U18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="V18" s="43" t="s">
+      <c r="V18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="W18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="44" t="s">
+      <c r="W18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AB18" s="43" t="s">
+      <c r="AB18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AC18" s="43" t="s">
+      <c r="AC18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="40" t="s">
         <v>84</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -8164,8 +8159,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -8208,8 +8203,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -8244,7 +8239,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -8256,7 +8251,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -8274,7 +8269,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -8293,7 +8288,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -8313,7 +8308,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -8330,7 +8325,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -8341,8 +8336,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -8357,18 +8352,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -8383,7 +8378,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -8398,51 +8393,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8462,22 +8457,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -8497,84 +8492,87 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -8591,9 +8589,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -8603,46 +8598,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="46" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="32" width="4.7265625" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="46" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC1" s="40" t="s">
+    <row r="1" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -8650,28 +8645,28 @@
       <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="53">
+      <c r="S4" s="46">
         <v>45276</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
       <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="46">
         <v>45306</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5" t="s">
         <v>6</v>
@@ -8682,13 +8677,13 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -8700,23 +8695,23 @@
       <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
       <c r="Z11" s="4" t="s">
         <v>77</v>
       </c>
@@ -8724,8 +8719,8 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -8757,8 +8752,8 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -8769,71 +8764,71 @@
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="49" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="41">
         <v>17</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
-        <v>19</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E17" s="41">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>21</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="41">
         <v>22</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <v>23</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="41">
         <v>24</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="41">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="41">
         <v>26</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="41">
         <v>27</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="41">
         <v>28</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="41">
         <v>29</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="41">
         <v>30</v>
       </c>
       <c r="Q17" s="9">
@@ -8842,96 +8837,96 @@
       <c r="R17" s="9">
         <v>1</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="41">
         <v>2</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="41">
         <v>3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="41">
         <v>4</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="41">
         <v>5</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>6</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="41">
         <v>7</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="41">
         <v>8</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="41">
         <v>9</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="41">
         <v>10</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="41">
         <v>11</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="41">
         <v>12</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="41">
         <v>13</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="41">
         <v>14</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="43" t="s">
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="43" t="s">
+      <c r="J18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="40" t="s">
         <v>86</v>
       </c>
       <c r="Q18" s="10" t="s">
@@ -8940,47 +8935,47 @@
       <c r="R18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="S18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="43" t="s">
+      <c r="S18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="W18" s="43" t="s">
+      <c r="W18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="X18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC18" s="43" t="s">
+      <c r="X18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-    </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -9016,8 +9011,8 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -9060,8 +9055,8 @@
       </c>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -9096,7 +9091,7 @@
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -9108,7 +9103,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -9126,7 +9121,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -9145,7 +9140,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
@@ -9165,7 +9160,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="17"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -9182,7 +9177,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -9193,8 +9188,8 @@
       <c r="D30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -9209,18 +9204,18 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="51"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -9235,7 +9230,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
@@ -9250,51 +9245,51 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="33" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="57" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="57" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="59"/>
-    </row>
-    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="44"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9314,22 +9309,22 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="33"/>
-    </row>
-    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="32"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -9349,84 +9344,87 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="33"/>
-    </row>
-    <row r="37" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="32"/>
+    </row>
+    <row r="37" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:X34"/>
@@ -9443,9 +9441,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
